--- a/pred_ohlcv/54_21/2020-01-12 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 ETH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1178.131144801768</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1230.757144801768</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1256.889344801768</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1266.889344801768</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1306.755144801768</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1306.755144801768</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1823.012344801768</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1424.405744801768</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1606.634544801768</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1220.650747255756</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1137.213847255756</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>452.6050253244828</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>454.5098253244828</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>478.1018253244828</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>454.8080575528437</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>548.3600575528437</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>434.6359575528437</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>434.6359575528437</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>507.8078575528437</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>527.7507575528437</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>639.0752575528436</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>634.8317575528436</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1717.15805730983</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1710.88995730983</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1710.88995730983</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1617.83015730983</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1379.04895730983</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1499.33535730983</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1078.69525730983</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1009.74305730983</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>1595.46436473759</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>1722.754500158093</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>1858.00526473759</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>1858.00526473759</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>1858.00526473759</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>1943.471710759621</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>1782.273057969922</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>1835.188457969922</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>1868.928857969922</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>1775.271057969922</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>1705.834857969922</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>1794.003757969922</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>1686.784057969922</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>1607.943457969922</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>1690.481157969922</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>1796.184383140331</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>1698.636483140331</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>1528.515283140331</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>1376.821573168822</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>2746.227962275309</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>2825.116262275309</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>2825.116262275309</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>2635.395562275309</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>2666.733262275309</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>2666.733262275309</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>2666.733262275309</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>2755.156662275309</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>2755.156662275309</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>2533.933962275309</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>2451.320862275309</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>2395.409862275309</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>2370.923362275309</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>2404.913262275309</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>2372.445662275309</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>2394.091262275309</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>2260.654962275309</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>2280.316662275309</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>2280.316662275309</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>2280.316662275309</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>2307.628462275309</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>2242.956962275309</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>2242.956962275309</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>2261.132562275309</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>2261.132562275309</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>2134.301762275309</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>1915.537362275309</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-848.6608041496968</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-726.1024041496968</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-728.2812041496968</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-729.3752041496969</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-638.4281136351277</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-633.1424136351277</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-635.4963136351276</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-636.4463136351277</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-636.4463136351277</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-634.4091136351277</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-632.1778136351277</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-641.5185136351276</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-644.8566136351277</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-644.8566136351277</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-675.6685136351277</v>
       </c>
       <c r="H783">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-675.6685136351277</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-675.9397136351278</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-659.4641136351278</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-532.1747136351278</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-532.1747136351278</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-532.1747136351278</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-528.6127136351278</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-528.6127136351278</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-514.0963136351278</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-666.7782136351278</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-562.3764136351278</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-659.0733136351279</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-651.5497136351279</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-651.5497136351279</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-787.6819520454104</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-949.2989520454105</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-936.5743520454105</v>
       </c>
       <c r="H851">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-939.1319520454105</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-932.2629291635304</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-982.2629291635304</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-980.9825291635304</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-992.6779291635304</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-946.0360291635304</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-892.2442291635305</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-896.2442291635305</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-896.2442291635305</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-894.8867291635305</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-900.3630291635305</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-823.3839291635305</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-823.3839291635305</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-845.1884291635306</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-802.2911291635306</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-700.617177161066</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-755.646177161066</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-755.646177161066</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-387.425777161066</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-131.903277161066</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-131.903277161066</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-95.36587716106598</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-20.88577716106598</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-20.88577716106598</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-506.2068558004116</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-798.003229497682</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-725.0990031949525</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-725.0990031949525</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-725.0990031949525</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-716.8763031949525</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-701.2824031949525</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-710.5558031949525</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-710.5558031949525</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-778.9989031949525</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-778.9989031949525</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-778.9989031949525</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-643.7457031949525</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-643.8766031949525</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-631.6372031949525</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-593.3187031949525</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-593.3187031949525</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-589.3031031949525</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-579.3031031949525</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-589.7982031949525</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-601.3615031949525</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-602.2221031949525</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-600.8106675912373</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-600.8106675912373</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-219.4493675912374</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-219.4493675912374</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-219.4493675912374</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-207.4188675912374</v>
       </c>
       <c r="H1061">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-207.4188675912374</v>
       </c>
       <c r="H1062">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-177.4042675912374</v>
       </c>
       <c r="H1100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 ETH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1178.131144801768</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1230.757144801768</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1256.889344801768</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1266.889344801768</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1306.755144801768</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1306.755144801768</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1823.012344801768</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1424.405744801768</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1606.634544801768</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1220.650747255756</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1137.213847255756</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>452.6050253244828</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>454.5098253244828</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>478.1018253244828</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>454.8080575528437</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>548.3600575528437</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>434.6359575528437</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>434.6359575528437</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>507.8078575528437</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>527.7507575528437</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>639.0752575528436</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>634.8317575528436</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1720.60175730983</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1717.15805730983</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1710.88995730983</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1710.88995730983</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1696.61865730983</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1617.83015730983</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1379.04895730983</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1078.69525730983</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1009.74305730983</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>1595.46436473759</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>1722.754500158093</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>1858.00526473759</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>1858.00526473759</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>1858.00526473759</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>1943.471710759621</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>1782.273057969922</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>1835.188457969922</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>1868.928857969922</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>1775.271057969922</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>1705.834857969922</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>1794.003757969922</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>1686.784057969922</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>1607.943457969922</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>1690.481157969922</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>1796.184383140331</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>1698.636483140331</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>1528.515283140331</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>1376.821573168822</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>2654.832162275309</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>2825.116262275309</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>2825.116262275309</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>2635.395562275309</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>2666.733262275309</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>2666.733262275309</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>2666.733262275309</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>2755.156662275309</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>2755.156662275309</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>2533.933962275309</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>2451.320862275309</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>2395.409862275309</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>2370.923362275309</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>2404.913262275309</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>2372.445662275309</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>2394.091262275309</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>2260.654962275309</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>2280.316662275309</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>2280.316662275309</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>2280.316662275309</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>2307.628462275309</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>2242.956962275309</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>2242.956962275309</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>2261.132562275309</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>2261.132562275309</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>2134.301762275309</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>1915.537362275309</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-848.6608041496968</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-848.6608041496968</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-726.1024041496968</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-728.2812041496968</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-729.3752041496969</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-638.4281136351277</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-633.1424136351277</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-635.4963136351276</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-636.4463136351277</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-636.4463136351277</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-634.4091136351277</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-632.1778136351277</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-632.2332136351276</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-641.5185136351276</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-641.5185136351276</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-641.5185136351276</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-641.5185136351276</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-644.8566136351277</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-644.8566136351277</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-675.6685136351277</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-675.6685136351277</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-675.9397136351278</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-659.4641136351278</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-455.9575136351278</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-455.9575136351278</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-455.6917136351278</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-464.6297136351278</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-494.5356136351277</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-494.7264136351278</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-532.1747136351278</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-532.1747136351278</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-532.1747136351278</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-528.6127136351278</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-528.6127136351278</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-514.0963136351278</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-666.7782136351278</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-562.3764136351278</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-659.0733136351279</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-651.5497136351279</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-651.5497136351279</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-579.7180136351279</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-587.0144136351279</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-584.3628136351278</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-577.8538136351278</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-577.8538136351278</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-577.8538136351278</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-578.1266136351278</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-565.9976136351278</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-562.0632136351278</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-562.0632136351278</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-569.9253136351278</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-569.9253136351278</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-567.3958136351279</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-566.4085136351279</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-568.7305136351279</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-568.7305136351279</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-568.7305136351279</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-491.3992136351279</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-491.3992136351279</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-537.1601136351279</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-544.9069628962117</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-556.6582628962117</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-556.6582628962117</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-739.9102628962116</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-731.6912628962116</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-738.3392628962116</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-738.3392628962116</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-731.7892628962117</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-732.3540628962116</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-717.2329628962117</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-717.2329628962117</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-727.0454628962117</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-719.1377520454103</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-734.6109520454103</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-715.6386520454103</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-715.6386520454103</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-713.8952520454103</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-714.8832520454104</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-703.2884520454104</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-703.2884520454104</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-787.6819520454104</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-822.4309520454104</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-822.4309520454104</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-839.6637520454104</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-949.2989520454105</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-936.5743520454105</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-939.1319520454105</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-932.2629291635304</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-982.2629291635304</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-980.9825291635304</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-992.6779291635304</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-896.2442291635305</v>
       </c>
       <c r="H862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-894.8867291635305</v>
       </c>
       <c r="H863">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-900.3630291635305</v>
       </c>
       <c r="H864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-823.3839291635305</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-823.3839291635305</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-845.1884291635306</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-802.2911291635306</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-700.617177161066</v>
       </c>
       <c r="H871">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-743.4852771610661</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-751.568677161066</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-751.568677161066</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-751.568677161066</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-751.568677161066</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-750.646177161066</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-387.425777161066</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-386.766177161066</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-131.903277161066</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-131.903277161066</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-95.36587716106598</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-20.88577716106598</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-20.88577716106598</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-506.2068558004116</v>
       </c>
       <c r="H1015">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-798.003229497682</v>
       </c>
       <c r="H1023">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-725.0990031949525</v>
       </c>
       <c r="H1024">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-725.0990031949525</v>
       </c>
       <c r="H1025">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-725.0990031949525</v>
       </c>
       <c r="H1026">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-716.8763031949525</v>
       </c>
       <c r="H1027">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-701.2824031949525</v>
       </c>
       <c r="H1028">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-710.5558031949525</v>
       </c>
       <c r="H1029">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-710.5558031949525</v>
       </c>
       <c r="H1030">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-778.9989031949525</v>
       </c>
       <c r="H1031">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-778.9989031949525</v>
       </c>
       <c r="H1032">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-778.9989031949525</v>
       </c>
       <c r="H1033">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-643.7457031949525</v>
       </c>
       <c r="H1034">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-643.8766031949525</v>
       </c>
       <c r="H1035">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-631.6372031949525</v>
       </c>
       <c r="H1036">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-593.3187031949525</v>
       </c>
       <c r="H1038">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-589.3031031949525</v>
       </c>
       <c r="H1039">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-579.3031031949525</v>
       </c>
       <c r="H1040">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-589.7982031949525</v>
       </c>
       <c r="H1041">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-601.3615031949525</v>
       </c>
       <c r="H1043">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-243.6458675912374</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-221.8470675912374</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-207.4188675912374</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-207.4188675912374</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-207.4188675912374</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-207.4188675912374</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-207.4188675912374</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-207.4188675912374</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-196.7996675912374</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-231.0371675912374</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-231.0371675912374</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-231.0371675912374</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-224.4855675912374</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-224.4855675912374</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-193.1756675912374</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-193.1756675912374</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-178.7273675912374</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-179.5597675912374</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-179.5597675912374</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-179.5597675912374</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-179.5597675912374</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-179.5597675912374</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-178.9943675912374</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-195.3340675912374</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-195.3340675912374</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-195.3340675912374</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-198.5701675912374</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-198.5701675912374</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-198.5701675912374</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-198.5701675912374</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-198.5701675912374</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-195.9235675912374</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
